--- a/new_macros/Runs_list.xlsx
+++ b/new_macros/Runs_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -28,16 +28,25 @@
     <t xml:space="preserve">Channel</t>
   </si>
   <si>
+    <t xml:space="preserve">Polarity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,6</t>
   </si>
   <si>
+    <t xml:space="preserve">-1,-1,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calibration</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,4,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,-1,-1,1</t>
   </si>
   <si>
     <t xml:space="preserve">Laser</t>
@@ -144,10 +153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C10"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -159,8 +168,11 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -168,10 +180,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -179,10 +194,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -190,10 +208,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -201,10 +222,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,10 +236,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -223,10 +250,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,10 +264,13 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,10 +278,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,10 +292,13 @@
         <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/new_macros/Runs_list.xlsx
+++ b/new_macros/Runs_list.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">Run</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel</t>
+    <t xml:space="preserve">Channels</t>
   </si>
   <si>
     <t xml:space="preserve">Polarity</t>
@@ -156,7 +156,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -168,7 +168,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -182,7 +182,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -196,7 +196,7 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -210,7 +210,7 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -224,7 +224,7 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -238,7 +238,7 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -252,7 +252,7 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -266,7 +266,7 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -280,7 +280,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -294,7 +294,7 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">

--- a/new_macros/Runs_list.xlsx
+++ b/new_macros/Runs_list.xlsx
@@ -149,17 +149,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/new_macros/Runs_list.xlsx
+++ b/new_macros/Runs_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="11">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">ChannelName</t>
+  </si>
+  <si>
     <t xml:space="preserve">0 1 3 4 5</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Alfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SiPM289 SiPM290 SiPM377 SiPM378 XARAPUCA</t>
   </si>
   <si>
     <t xml:space="preserve">Calibration</t>
@@ -165,16 +171,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="42.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -190,19 +197,25 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -210,13 +223,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -224,13 +240,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -238,12 +257,15 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -252,12 +274,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -266,27 +291,33 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -294,13 +325,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -308,13 +342,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -322,13 +359,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -336,13 +376,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -350,13 +393,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,13 +410,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,13 +427,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,13 +444,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,13 +461,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,13 +478,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -434,13 +495,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,13 +512,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,13 +529,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,13 +546,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,13 +563,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,13 +580,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -518,13 +597,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,13 +614,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,13 +631,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,13 +648,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -574,13 +665,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,13 +682,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -602,13 +699,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/new_macros/Runs_list.xlsx
+++ b/new_macros/Runs_list.xlsx
@@ -174,7 +174,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
